--- a/frontend/excel/나라장터query.xlsx
+++ b/frontend/excel/나라장터query.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunseong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunseong/Desktop/Electron-Crawler/frontend/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB0F1B9-2C5B-8440-97C0-ADCCD143AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EA2B9-FDEF-5E46-9B54-07B4EEF1676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E4553376-BAE8-FF4C-94EE-6D191E5DB054}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>검색어</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서울서일초등학교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시교육청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-05-22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -66,10 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조직명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기관명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,6 +67,10 @@
   </si>
   <si>
     <t>종료날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시교육청 서울서일초등학교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,24 +583,25 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
@@ -616,8 +609,8 @@
       <c r="A2" s="5"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
@@ -626,17 +619,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -645,16 +636,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/excel/나라장터query.xlsx
+++ b/frontend/excel/나라장터query.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunseong/Desktop/Electron-Crawler/frontend/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EA2B9-FDEF-5E46-9B54-07B4EEF1676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC8F628-DA19-0B4E-A1D7-7DFA55C5DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E4553376-BAE8-FF4C-94EE-6D191E5DB054}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{E4553376-BAE8-FF4C-94EE-6D191E5DB054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서울특별시교육청 서울서일초등학교</t>
+    <t>서울서일초등학교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +243,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +583,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/frontend/excel/나라장터query.xlsx
+++ b/frontend/excel/나라장터query.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunseong/Desktop/Electron-Crawler/frontend/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunseong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC8F628-DA19-0B4E-A1D7-7DFA55C5DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BB25EA-0A95-454D-A2DA-589F84C0960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{E4553376-BAE8-FF4C-94EE-6D191E5DB054}"/>
+    <workbookView xWindow="7540" yWindow="3560" windowWidth="27700" windowHeight="16580" xr2:uid="{EC2ABB09-4365-AC41-8F84-724C6EDB2429}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,41 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>* 반드시 아래 예시에 맞게 검색 데이터를 입력해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자칠판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울서일초등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>검색어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전자칠판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-01-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 반드시 아래 예시에 맞게 검색 데이터를 입력해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기관명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>시작날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울서일초등학교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,14 +220,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -228,22 +239,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,70 +596,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A21D49C-4BC3-9446-8DBC-FB22EE638C90}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD829FD-E670-BD4C-92AE-11F120476A60}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
